--- a/Code/Results/Cases/Case_0_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04535888997812521</v>
+        <v>0.07024041978417017</v>
       </c>
       <c r="D2">
-        <v>0.07564452083025941</v>
+        <v>0.04822054979098311</v>
       </c>
       <c r="E2">
-        <v>0.1813007778986986</v>
+        <v>0.108440918579241</v>
       </c>
       <c r="F2">
-        <v>0.694082152655767</v>
+        <v>2.419795505892246</v>
       </c>
       <c r="G2">
-        <v>0.9002093492884029</v>
+        <v>1.920740223186542</v>
       </c>
       <c r="H2">
-        <v>0.4506397731889962</v>
+        <v>1.654611435573614</v>
       </c>
       <c r="I2">
-        <v>0.5321058890040078</v>
+        <v>1.751231532570721</v>
       </c>
       <c r="J2">
-        <v>0.3616663491499565</v>
+        <v>0.194927321485082</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4552356819363723</v>
+        <v>0.2171153030101038</v>
       </c>
       <c r="M2">
-        <v>33.12724054437746</v>
+        <v>11.388345524606</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04190631949116153</v>
+        <v>0.06980490470707679</v>
       </c>
       <c r="D3">
-        <v>0.06686102643946157</v>
+        <v>0.04559330352481794</v>
       </c>
       <c r="E3">
-        <v>0.1555299462379907</v>
+        <v>0.1037931500262914</v>
       </c>
       <c r="F3">
-        <v>0.6010883982039488</v>
+        <v>2.493054347851299</v>
       </c>
       <c r="G3">
-        <v>0.7465273009112252</v>
+        <v>1.974577599390386</v>
       </c>
       <c r="H3">
-        <v>0.409328461825055</v>
+        <v>1.696613570917933</v>
       </c>
       <c r="I3">
-        <v>0.4579376545598066</v>
+        <v>1.803894673724344</v>
       </c>
       <c r="J3">
-        <v>0.3034037816084663</v>
+        <v>0.1871043495012827</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3863768573885551</v>
+        <v>0.2042958914198891</v>
       </c>
       <c r="M3">
-        <v>28.24653669843286</v>
+        <v>10.09659348287158</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03991343805229519</v>
+        <v>0.06956338470914858</v>
       </c>
       <c r="D4">
-        <v>0.06154492064123218</v>
+        <v>0.04397223259358185</v>
       </c>
       <c r="E4">
-        <v>0.1408732808795818</v>
+        <v>0.1010067281569178</v>
       </c>
       <c r="F4">
-        <v>0.5650431189448639</v>
+        <v>2.541467271188658</v>
       </c>
       <c r="G4">
-        <v>0.6744342253591924</v>
+        <v>2.010794597188053</v>
       </c>
       <c r="H4">
-        <v>0.3945691327478897</v>
+        <v>1.724354593486552</v>
       </c>
       <c r="I4">
-        <v>0.4281170711938529</v>
+        <v>1.838751606134807</v>
       </c>
       <c r="J4">
-        <v>0.2711774927846307</v>
+        <v>0.1824993479487489</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.347269622165129</v>
+        <v>0.196566822843053</v>
       </c>
       <c r="M4">
-        <v>25.37992086467011</v>
+        <v>9.300405068397936</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03912699657178109</v>
+        <v>0.06947147026631484</v>
       </c>
       <c r="D5">
-        <v>0.05939319851814417</v>
+        <v>0.0433096432405975</v>
       </c>
       <c r="E5">
-        <v>0.1351268515933626</v>
+        <v>0.09988784056564981</v>
       </c>
       <c r="F5">
-        <v>0.5546683907750705</v>
+        <v>2.562048048635475</v>
       </c>
       <c r="G5">
-        <v>0.6495932652254908</v>
+        <v>2.026336333739607</v>
       </c>
       <c r="H5">
-        <v>0.3907431197293363</v>
+        <v>1.736144787633506</v>
       </c>
       <c r="I5">
-        <v>0.419183653338095</v>
+        <v>1.85358205918304</v>
       </c>
       <c r="J5">
-        <v>0.2587341128432286</v>
+        <v>0.1806713943441878</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3319462171129146</v>
+        <v>0.1934519324127706</v>
       </c>
       <c r="M5">
-        <v>24.23639257512679</v>
+        <v>8.975152973681645</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03899780757161864</v>
+        <v>0.06945660093354178</v>
       </c>
       <c r="D6">
-        <v>0.05903666955958187</v>
+        <v>0.0431995008091377</v>
       </c>
       <c r="E6">
-        <v>0.1341847016364923</v>
+        <v>0.09970304384607687</v>
       </c>
       <c r="F6">
-        <v>0.5531821656358034</v>
+        <v>2.565516623179427</v>
       </c>
       <c r="G6">
-        <v>0.6457163854805259</v>
+        <v>2.028963978679215</v>
       </c>
       <c r="H6">
-        <v>0.3902282310027374</v>
+        <v>1.738131711724918</v>
       </c>
       <c r="I6">
-        <v>0.4178766419130397</v>
+        <v>1.856082216790647</v>
       </c>
       <c r="J6">
-        <v>0.2567046044492685</v>
+        <v>0.1803707656346774</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3294343314967989</v>
+        <v>0.1929367804674058</v>
       </c>
       <c r="M6">
-        <v>24.0478012084846</v>
+        <v>8.921095993921824</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03990273491981355</v>
+        <v>0.06956211877295715</v>
       </c>
       <c r="D7">
-        <v>0.06151584808979038</v>
+        <v>0.04396330472994237</v>
       </c>
       <c r="E7">
-        <v>0.1407949418822163</v>
+        <v>0.1009915716379624</v>
       </c>
       <c r="F7">
-        <v>0.5648868501589845</v>
+        <v>2.541741394723658</v>
       </c>
       <c r="G7">
-        <v>0.6740820495852944</v>
+        <v>2.011001043478643</v>
       </c>
       <c r="H7">
-        <v>0.3945092178118159</v>
+        <v>1.724511641240269</v>
       </c>
       <c r="I7">
-        <v>0.4279843952750255</v>
+        <v>1.838949090889358</v>
       </c>
       <c r="J7">
-        <v>0.2710071151988984</v>
+        <v>0.1824745002533632</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3470606908344536</v>
+        <v>0.1965246747837313</v>
       </c>
       <c r="M7">
-        <v>25.36440824217277</v>
+        <v>9.296021879399746</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04413769711246118</v>
+        <v>0.0700848779988803</v>
       </c>
       <c r="D8">
-        <v>0.07259682213226881</v>
+        <v>0.04731632227085214</v>
       </c>
       <c r="E8">
-        <v>0.1721259202773666</v>
+        <v>0.1068241859352028</v>
       </c>
       <c r="F8">
-        <v>0.6569695159841302</v>
+        <v>2.4443363706065</v>
       </c>
       <c r="G8">
-        <v>0.8418631608186047</v>
+        <v>1.938640250607619</v>
       </c>
       <c r="H8">
-        <v>0.4338633162267627</v>
+        <v>1.668685570032949</v>
       </c>
       <c r="I8">
-        <v>0.5027618930053919</v>
+        <v>1.768861541865334</v>
       </c>
       <c r="J8">
-        <v>0.3406992829192745</v>
+        <v>0.1921880159471812</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4307056882659595</v>
+        <v>0.2126650665753971</v>
       </c>
       <c r="M8">
-        <v>31.41173872707299</v>
+        <v>10.94356064081774</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05388040935783778</v>
+        <v>0.07131586659861711</v>
       </c>
       <c r="D9">
-        <v>0.09522273092115796</v>
+        <v>0.05382894735670618</v>
       </c>
       <c r="E9">
-        <v>0.2474091078917127</v>
+        <v>0.1188131637182295</v>
       </c>
       <c r="F9">
-        <v>1.06980098993057</v>
+        <v>2.281042671463581</v>
       </c>
       <c r="G9">
-        <v>1.41802202255144</v>
+        <v>1.822352149674913</v>
       </c>
       <c r="H9">
-        <v>0.6269317519404751</v>
+        <v>1.574931304572857</v>
       </c>
       <c r="I9">
-        <v>0.8229433916836868</v>
+        <v>1.651793249957294</v>
       </c>
       <c r="J9">
-        <v>0.519392368255609</v>
+        <v>0.2128715028224661</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6325094201874748</v>
+        <v>0.2454932644923247</v>
       </c>
       <c r="M9">
-        <v>44.84610921205103</v>
+        <v>14.15203809824186</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06302519764680881</v>
+        <v>0.07234686842951987</v>
       </c>
       <c r="D10">
-        <v>0.1129982439783532</v>
+        <v>0.05857673014875786</v>
       </c>
       <c r="E10">
-        <v>0.3228730211723132</v>
+        <v>0.1279844345268231</v>
       </c>
       <c r="F10">
-        <v>1.675720585473016</v>
+        <v>2.17864700564833</v>
       </c>
       <c r="G10">
-        <v>2.165210452927795</v>
+        <v>1.753272970291363</v>
       </c>
       <c r="H10">
-        <v>0.9174940866881514</v>
+        <v>1.515961328540385</v>
       </c>
       <c r="I10">
-        <v>1.28446120275899</v>
+        <v>1.578712216401996</v>
       </c>
       <c r="J10">
-        <v>0.7118078575442723</v>
+        <v>0.2291577237777318</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8359559096947748</v>
+        <v>0.2704068706282499</v>
       </c>
       <c r="M10">
-        <v>57.02875018939631</v>
+        <v>16.49877867328553</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06825907726828007</v>
+        <v>0.07284372458653365</v>
       </c>
       <c r="D11">
-        <v>0.1216058130977729</v>
+        <v>0.06072892700733235</v>
       </c>
       <c r="E11">
-        <v>0.3682419879488776</v>
+        <v>0.1322421195955883</v>
       </c>
       <c r="F11">
-        <v>2.105037560967531</v>
+        <v>2.136031708863143</v>
       </c>
       <c r="G11">
-        <v>2.669592472194495</v>
+        <v>1.725564354588727</v>
       </c>
       <c r="H11">
-        <v>1.124400208869702</v>
+        <v>1.491359126987845</v>
       </c>
       <c r="I11">
-        <v>1.609322046443936</v>
+        <v>1.548386120961503</v>
       </c>
       <c r="J11">
-        <v>0.8328231923550788</v>
+        <v>0.2368256709060148</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9587388019674279</v>
+        <v>0.2819321220697759</v>
       </c>
       <c r="M11">
-        <v>63.81931630053128</v>
+        <v>17.56486815602557</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07054443327469784</v>
+        <v>0.07303590622541378</v>
       </c>
       <c r="D12">
-        <v>0.1249913236787421</v>
+        <v>0.06154283960572116</v>
       </c>
       <c r="E12">
-        <v>0.3885291868308158</v>
+        <v>0.1338672847879749</v>
       </c>
       <c r="F12">
-        <v>2.309142164276309</v>
+        <v>2.120477496070336</v>
       </c>
       <c r="G12">
-        <v>2.904962620818708</v>
+        <v>1.715620281085108</v>
       </c>
       <c r="H12">
-        <v>1.222834141818822</v>
+        <v>1.482368893791858</v>
       </c>
       <c r="I12">
-        <v>1.763386892877563</v>
+        <v>1.537331829904588</v>
       </c>
       <c r="J12">
-        <v>0.8880692743264404</v>
+        <v>0.2397685451293796</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.013735195422981</v>
+        <v>0.2863256735764139</v>
       </c>
       <c r="M12">
-        <v>66.73687691541926</v>
+        <v>17.96842597258734</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07003397468064065</v>
+        <v>0.0729943365968353</v>
       </c>
       <c r="D13">
-        <v>0.1242551213657066</v>
+        <v>0.06136759662302893</v>
       </c>
       <c r="E13">
-        <v>0.3839736271111249</v>
+        <v>0.1335166945259871</v>
       </c>
       <c r="F13">
-        <v>2.262732143856496</v>
+        <v>2.123801220267538</v>
       </c>
       <c r="G13">
-        <v>2.851653822252786</v>
+        <v>1.717737286192573</v>
       </c>
       <c r="H13">
-        <v>1.200451188975364</v>
+        <v>1.484290495781948</v>
       </c>
       <c r="I13">
-        <v>1.728373192669139</v>
+        <v>1.539693306093604</v>
       </c>
       <c r="J13">
-        <v>0.8756062179130737</v>
+        <v>0.2391329699149196</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.001381126722748</v>
+        <v>0.2853781189011784</v>
       </c>
       <c r="M13">
-        <v>66.08790921454806</v>
+        <v>17.88151807147693</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0684394215784252</v>
+        <v>0.07285945447843289</v>
       </c>
       <c r="D14">
-        <v>0.1218813201018918</v>
+        <v>0.06079590958786696</v>
       </c>
       <c r="E14">
-        <v>0.3698326653545081</v>
+        <v>0.1323755615801119</v>
       </c>
       <c r="F14">
-        <v>2.120794343179952</v>
+        <v>2.134740288399939</v>
       </c>
       <c r="G14">
-        <v>2.687851511866569</v>
+        <v>1.724735172434862</v>
       </c>
       <c r="H14">
-        <v>1.131998730445389</v>
+        <v>1.490612922920661</v>
       </c>
       <c r="I14">
-        <v>1.621223396529345</v>
+        <v>1.547468011954457</v>
       </c>
       <c r="J14">
-        <v>0.8371307811984394</v>
+        <v>0.2370669861826542</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.963049058930622</v>
+        <v>0.282292987686219</v>
       </c>
       <c r="M14">
-        <v>64.05066106892565</v>
+        <v>17.59807167350306</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06750991120995309</v>
+        <v>0.07277736142671642</v>
       </c>
       <c r="D15">
-        <v>0.1204461278683624</v>
+        <v>0.06044559492200108</v>
       </c>
       <c r="E15">
-        <v>0.3616533171293739</v>
+        <v>0.1316782783753396</v>
       </c>
       <c r="F15">
-        <v>2.040243354228025</v>
+        <v>2.141517138168126</v>
       </c>
       <c r="G15">
-        <v>2.594341179358224</v>
+        <v>1.729093450061441</v>
       </c>
       <c r="H15">
-        <v>1.093155813681051</v>
+        <v>1.494528249288976</v>
       </c>
       <c r="I15">
-        <v>1.560367563160185</v>
+        <v>1.552286478785248</v>
       </c>
       <c r="J15">
-        <v>0.8150258537402237</v>
+        <v>0.2358066737126023</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9408891084228515</v>
+        <v>0.2804071061682691</v>
       </c>
       <c r="M15">
-        <v>62.8563196131546</v>
+        <v>17.42443534760258</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06271390179696823</v>
+        <v>0.07231496041089258</v>
       </c>
       <c r="D16">
-        <v>0.1124495619670398</v>
+        <v>0.05843592735433845</v>
       </c>
       <c r="E16">
-        <v>0.320224051658478</v>
+        <v>0.1277079546624265</v>
       </c>
       <c r="F16">
-        <v>1.651969796310325</v>
+        <v>2.181512914638731</v>
       </c>
       <c r="G16">
-        <v>2.136853274401886</v>
+        <v>1.75515977484531</v>
       </c>
       <c r="H16">
-        <v>0.9060599252328814</v>
+        <v>1.517614422170169</v>
       </c>
       <c r="I16">
-        <v>1.266450295864772</v>
+        <v>1.580753665904169</v>
       </c>
       <c r="J16">
-        <v>0.70485758462371</v>
+        <v>0.228661982772195</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8287968695040604</v>
+        <v>0.2696576636900545</v>
       </c>
       <c r="M16">
-        <v>56.62045565915315</v>
+        <v>16.42908312237648</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06010978713899107</v>
+        <v>0.07203844369740864</v>
       </c>
       <c r="D17">
-        <v>0.1077015321776784</v>
+        <v>0.05720112545439804</v>
       </c>
       <c r="E17">
-        <v>0.2982856912157246</v>
+        <v>0.1252946053391426</v>
       </c>
       <c r="F17">
-        <v>1.461592660768119</v>
+        <v>2.207073783517359</v>
       </c>
       <c r="G17">
-        <v>1.907359278941385</v>
+        <v>1.772112355230007</v>
       </c>
       <c r="H17">
-        <v>0.8144933379770691</v>
+        <v>1.532351005974164</v>
       </c>
       <c r="I17">
-        <v>1.121894097175812</v>
+        <v>1.598971851958659</v>
       </c>
       <c r="J17">
-        <v>0.6478191332543162</v>
+        <v>0.2243466695177432</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7695531675905727</v>
+        <v>0.2631134809532369</v>
       </c>
       <c r="M17">
-        <v>53.18676057384431</v>
+        <v>15.81813657404467</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05870045513020017</v>
+        <v>0.07188201780876113</v>
       </c>
       <c r="D18">
-        <v>0.1050154526160583</v>
+        <v>0.05649018423622465</v>
       </c>
       <c r="E18">
-        <v>0.2865781215005043</v>
+        <v>0.1239145343017043</v>
       </c>
       <c r="F18">
-        <v>1.364920225421145</v>
+        <v>2.222148120223466</v>
       </c>
       <c r="G18">
-        <v>1.789096696832928</v>
+        <v>1.782211910612489</v>
       </c>
       <c r="H18">
-        <v>0.7680737229734405</v>
+        <v>1.541036000098003</v>
       </c>
       <c r="I18">
-        <v>1.048341566871009</v>
+        <v>1.609724602997957</v>
       </c>
       <c r="J18">
-        <v>0.6177747907714917</v>
+        <v>0.2218888972886646</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7379727053569383</v>
+        <v>0.2593674030674578</v>
       </c>
       <c r="M18">
-        <v>51.31527325617941</v>
+        <v>15.46659530906624</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05823613233921776</v>
+        <v>0.07182950375535313</v>
       </c>
       <c r="D19">
-        <v>0.1041127702775242</v>
+        <v>0.05624934844237828</v>
       </c>
       <c r="E19">
-        <v>0.282746330067333</v>
+        <v>0.1234486276955522</v>
       </c>
       <c r="F19">
-        <v>1.334074385603131</v>
+        <v>2.227315597845219</v>
       </c>
       <c r="G19">
-        <v>1.75107500285398</v>
+        <v>1.785690939033671</v>
       </c>
       <c r="H19">
-        <v>0.7532768664715377</v>
+        <v>1.544012278109307</v>
       </c>
       <c r="I19">
-        <v>1.024848193158881</v>
+        <v>1.613412087208019</v>
       </c>
       <c r="J19">
-        <v>0.6080032513078777</v>
+        <v>0.2210608520898063</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7276422523382422</v>
+        <v>0.2581020840478629</v>
       </c>
       <c r="M19">
-        <v>50.69669599201319</v>
+        <v>15.34754346754295</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06037723634665326</v>
+        <v>0.07206760810292678</v>
       </c>
       <c r="D20">
-        <v>0.1082020899045801</v>
+        <v>0.05733264621844114</v>
       </c>
       <c r="E20">
-        <v>0.3005205550688075</v>
+        <v>0.1255506761624474</v>
       </c>
       <c r="F20">
-        <v>1.480449460013361</v>
+        <v>2.204314149419872</v>
       </c>
       <c r="G20">
-        <v>1.930280473044263</v>
+        <v>1.770271514438718</v>
       </c>
       <c r="H20">
-        <v>0.8235549144596348</v>
+        <v>1.530760605586522</v>
       </c>
       <c r="I20">
-        <v>1.136228590580068</v>
+        <v>1.597004053006692</v>
       </c>
       <c r="J20">
-        <v>0.6535860949796444</v>
+        <v>0.2248035154673858</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7755844399694212</v>
+        <v>0.2638082501319019</v>
       </c>
       <c r="M20">
-        <v>53.54087917909948</v>
+        <v>15.88318703547725</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06889733123271924</v>
+        <v>0.0728989629210588</v>
       </c>
       <c r="D21">
-        <v>0.1225744538457008</v>
+        <v>0.06096385704093166</v>
       </c>
       <c r="E21">
-        <v>0.3738795024790988</v>
+        <v>0.1327103859680534</v>
       </c>
       <c r="F21">
-        <v>2.161075873542941</v>
+        <v>2.131511282751177</v>
       </c>
       <c r="G21">
-        <v>2.734459936183072</v>
+        <v>1.722664719934897</v>
       </c>
       <c r="H21">
-        <v>1.151424632333459</v>
+        <v>1.488746971514445</v>
       </c>
       <c r="I21">
-        <v>1.651642665642115</v>
+        <v>1.545172655142778</v>
       </c>
       <c r="J21">
-        <v>0.8481084941813037</v>
+        <v>0.2376727363076299</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9740162671206178</v>
+        <v>0.2831983600790409</v>
       </c>
       <c r="M21">
-        <v>64.63722556270176</v>
+        <v>17.68133022210179</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07656522790957609</v>
+        <v>0.073465825409329</v>
       </c>
       <c r="D22">
-        <v>0.1327945194923643</v>
+        <v>0.06333079135985997</v>
       </c>
       <c r="E22">
-        <v>0.443240119628264</v>
+        <v>0.1374649900453946</v>
       </c>
       <c r="F22">
-        <v>2.888854905309501</v>
+        <v>2.087336514031662</v>
       </c>
       <c r="G22">
-        <v>3.562094026935881</v>
+        <v>1.694755348761163</v>
       </c>
       <c r="H22">
-        <v>1.502325778507668</v>
+        <v>1.463192380405019</v>
       </c>
       <c r="I22">
-        <v>2.199991481154086</v>
+        <v>1.513806293378245</v>
       </c>
       <c r="J22">
-        <v>1.040150696328311</v>
+        <v>0.2463129114210432</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.162273084382576</v>
+        <v>0.2960418748111522</v>
       </c>
       <c r="M22">
-        <v>74.26220030628338</v>
+        <v>18.85569600099393</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07214500142356428</v>
+        <v>0.07316111711440954</v>
       </c>
       <c r="D23">
-        <v>0.1272246033102533</v>
+        <v>0.06206808209439885</v>
       </c>
       <c r="E23">
-        <v>0.4029010337495436</v>
+        <v>0.1349202806042271</v>
       </c>
       <c r="F23">
-        <v>2.457597220467818</v>
+        <v>2.110597335634907</v>
       </c>
       <c r="G23">
-        <v>3.074722265812881</v>
+        <v>1.709353093474334</v>
       </c>
       <c r="H23">
-        <v>1.294429516816024</v>
+        <v>1.476655013519746</v>
       </c>
       <c r="I23">
-        <v>1.875322002060869</v>
+        <v>1.530314274323246</v>
       </c>
       <c r="J23">
-        <v>0.9275978364775028</v>
+        <v>0.2416798360813743</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.052725358194536</v>
+        <v>0.2891708508901161</v>
       </c>
       <c r="M23">
-        <v>68.76121599655562</v>
+        <v>18.22896836640194</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06025605691291958</v>
+        <v>0.07205441494308218</v>
       </c>
       <c r="D24">
-        <v>0.1079756547964834</v>
+        <v>0.05727318891288746</v>
       </c>
       <c r="E24">
-        <v>0.2995074347894473</v>
+        <v>0.1254348835492962</v>
       </c>
       <c r="F24">
-        <v>1.471885548900289</v>
+        <v>2.205560600319188</v>
       </c>
       <c r="G24">
-        <v>1.919876321007195</v>
+        <v>1.771102659211181</v>
       </c>
       <c r="H24">
-        <v>0.8194392962347194</v>
+        <v>1.531478963455186</v>
       </c>
       <c r="I24">
-        <v>1.129718988703289</v>
+        <v>1.597892827025241</v>
       </c>
       <c r="J24">
-        <v>0.6509705378155246</v>
+        <v>0.2245969034216841</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7728501996506481</v>
+        <v>0.2634940944590625</v>
       </c>
       <c r="M24">
-        <v>53.38047154993546</v>
+        <v>15.85377866077937</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05101271594675438</v>
+        <v>0.07096071567499251</v>
       </c>
       <c r="D25">
-        <v>0.08895767354918149</v>
+        <v>0.05207371149162299</v>
       </c>
       <c r="E25">
-        <v>0.2247313105380684</v>
+        <v>0.1155081718221638</v>
       </c>
       <c r="F25">
-        <v>0.9216125693433241</v>
+        <v>2.322181369969158</v>
       </c>
       <c r="G25">
-        <v>1.223140230490998</v>
+        <v>1.850993408100777</v>
       </c>
       <c r="H25">
-        <v>0.5566361873202936</v>
+        <v>1.598577904156159</v>
       </c>
       <c r="I25">
-        <v>0.7090328568374176</v>
+        <v>1.681230327683508</v>
       </c>
       <c r="J25">
-        <v>0.4640388293908728</v>
+        <v>0.2070917571159185</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5715925529715946</v>
+        <v>0.2364787631903056</v>
       </c>
       <c r="M25">
-        <v>40.94579271809334</v>
+        <v>13.28615121475838</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07024041978417017</v>
+        <v>0.04535888997821758</v>
       </c>
       <c r="D2">
-        <v>0.04822054979098311</v>
+        <v>0.07564452083020257</v>
       </c>
       <c r="E2">
-        <v>0.108440918579241</v>
+        <v>0.1813007778987199</v>
       </c>
       <c r="F2">
-        <v>2.419795505892246</v>
+        <v>0.6940821526557528</v>
       </c>
       <c r="G2">
-        <v>1.920740223186542</v>
+        <v>0.9002093492884882</v>
       </c>
       <c r="H2">
-        <v>1.654611435573614</v>
+        <v>0.4506397731891099</v>
       </c>
       <c r="I2">
-        <v>1.751231532570721</v>
+        <v>0.5321058890040007</v>
       </c>
       <c r="J2">
-        <v>0.194927321485082</v>
+        <v>0.361666349149985</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2171153030101038</v>
+        <v>0.4552356819363723</v>
       </c>
       <c r="M2">
-        <v>11.388345524606</v>
+        <v>33.12724054437723</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06980490470707679</v>
+        <v>0.04190631949104073</v>
       </c>
       <c r="D3">
-        <v>0.04559330352481794</v>
+        <v>0.06686102643957526</v>
       </c>
       <c r="E3">
-        <v>0.1037931500262914</v>
+        <v>0.1555299462380049</v>
       </c>
       <c r="F3">
-        <v>2.493054347851299</v>
+        <v>0.6010883982039488</v>
       </c>
       <c r="G3">
-        <v>1.974577599390386</v>
+        <v>0.7465273009111968</v>
       </c>
       <c r="H3">
-        <v>1.696613570917933</v>
+        <v>0.4093284618250692</v>
       </c>
       <c r="I3">
-        <v>1.803894673724344</v>
+        <v>0.4579376545598208</v>
       </c>
       <c r="J3">
-        <v>0.1871043495012827</v>
+        <v>0.3034037816084236</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2042958914198891</v>
+        <v>0.3863768573885693</v>
       </c>
       <c r="M3">
-        <v>10.09659348287158</v>
+        <v>28.24653669843281</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06956338470914858</v>
+        <v>0.03991343805228809</v>
       </c>
       <c r="D4">
-        <v>0.04397223259358185</v>
+        <v>0.06154492064130324</v>
       </c>
       <c r="E4">
-        <v>0.1010067281569178</v>
+        <v>0.1408732808796138</v>
       </c>
       <c r="F4">
-        <v>2.541467271188658</v>
+        <v>0.5650431189448497</v>
       </c>
       <c r="G4">
-        <v>2.010794597188053</v>
+        <v>0.6744342253591924</v>
       </c>
       <c r="H4">
-        <v>1.724354593486552</v>
+        <v>0.3945691327479892</v>
       </c>
       <c r="I4">
-        <v>1.838751606134807</v>
+        <v>0.4281170711938316</v>
       </c>
       <c r="J4">
-        <v>0.1824993479487489</v>
+        <v>0.2711774927845596</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.196566822843053</v>
+        <v>0.3472696221651574</v>
       </c>
       <c r="M4">
-        <v>9.300405068397936</v>
+        <v>25.37992086466994</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06947147026631484</v>
+        <v>0.03912699657178109</v>
       </c>
       <c r="D5">
-        <v>0.0433096432405975</v>
+        <v>0.05939319851821523</v>
       </c>
       <c r="E5">
-        <v>0.09988784056564981</v>
+        <v>0.1351268515933874</v>
       </c>
       <c r="F5">
-        <v>2.562048048635475</v>
+        <v>0.5546683907750705</v>
       </c>
       <c r="G5">
-        <v>2.026336333739607</v>
+        <v>0.6495932652254339</v>
       </c>
       <c r="H5">
-        <v>1.736144787633506</v>
+        <v>0.3907431197292368</v>
       </c>
       <c r="I5">
-        <v>1.85358205918304</v>
+        <v>0.4191836533380879</v>
       </c>
       <c r="J5">
-        <v>0.1806713943441878</v>
+        <v>0.2587341128432428</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1934519324127706</v>
+        <v>0.3319462171129004</v>
       </c>
       <c r="M5">
-        <v>8.975152973681645</v>
+        <v>24.23639257512696</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06945660093354178</v>
+        <v>0.03899780757105731</v>
       </c>
       <c r="D6">
-        <v>0.0431995008091377</v>
+        <v>0.05903666955957476</v>
       </c>
       <c r="E6">
-        <v>0.09970304384607687</v>
+        <v>0.1341847016365207</v>
       </c>
       <c r="F6">
-        <v>2.565516623179427</v>
+        <v>0.5531821656358105</v>
       </c>
       <c r="G6">
-        <v>2.028963978679215</v>
+        <v>0.6457163854804548</v>
       </c>
       <c r="H6">
-        <v>1.738131711724918</v>
+        <v>0.3902282310028653</v>
       </c>
       <c r="I6">
-        <v>1.856082216790647</v>
+        <v>0.4178766419130397</v>
       </c>
       <c r="J6">
-        <v>0.1803707656346774</v>
+        <v>0.2567046044491974</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1929367804674058</v>
+        <v>0.3294343314968415</v>
       </c>
       <c r="M6">
-        <v>8.921095993921824</v>
+        <v>24.04780120848443</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06956211877295715</v>
+        <v>0.03990273491981355</v>
       </c>
       <c r="D7">
-        <v>0.04396330472994237</v>
+        <v>0.06151584808989696</v>
       </c>
       <c r="E7">
-        <v>0.1009915716379624</v>
+        <v>0.1407949418822234</v>
       </c>
       <c r="F7">
-        <v>2.541741394723658</v>
+        <v>0.5648868501589988</v>
       </c>
       <c r="G7">
-        <v>2.011001043478643</v>
+        <v>0.6740820495853086</v>
       </c>
       <c r="H7">
-        <v>1.724511641240269</v>
+        <v>0.3945092178118159</v>
       </c>
       <c r="I7">
-        <v>1.838949090889358</v>
+        <v>0.4279843952749971</v>
       </c>
       <c r="J7">
-        <v>0.1824745002533632</v>
+        <v>0.2710071151988416</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1965246747837313</v>
+        <v>0.3470606908345246</v>
       </c>
       <c r="M7">
-        <v>9.296021879399746</v>
+        <v>25.36440824217254</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0700848779988803</v>
+        <v>0.04413769711256776</v>
       </c>
       <c r="D8">
-        <v>0.04731632227085214</v>
+        <v>0.07259682213211249</v>
       </c>
       <c r="E8">
-        <v>0.1068241859352028</v>
+        <v>0.1721259202773453</v>
       </c>
       <c r="F8">
-        <v>2.4443363706065</v>
+        <v>0.656969515984116</v>
       </c>
       <c r="G8">
-        <v>1.938640250607619</v>
+        <v>0.8418631608185905</v>
       </c>
       <c r="H8">
-        <v>1.668685570032949</v>
+        <v>0.4338633162268763</v>
       </c>
       <c r="I8">
-        <v>1.768861541865334</v>
+        <v>0.5027618930053706</v>
       </c>
       <c r="J8">
-        <v>0.1921880159471812</v>
+        <v>0.3406992829192887</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2126650665753971</v>
+        <v>0.4307056882660305</v>
       </c>
       <c r="M8">
-        <v>10.94356064081774</v>
+        <v>31.41173872707287</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07131586659861711</v>
+        <v>0.05388040935780225</v>
       </c>
       <c r="D9">
-        <v>0.05382894735670618</v>
+        <v>0.09522273092119349</v>
       </c>
       <c r="E9">
-        <v>0.1188131637182295</v>
+        <v>0.247409107891734</v>
       </c>
       <c r="F9">
-        <v>2.281042671463581</v>
+        <v>1.06980098993057</v>
       </c>
       <c r="G9">
-        <v>1.822352149674913</v>
+        <v>1.418022022551554</v>
       </c>
       <c r="H9">
-        <v>1.574931304572857</v>
+        <v>0.6269317519405035</v>
       </c>
       <c r="I9">
-        <v>1.651793249957294</v>
+        <v>0.8229433916836939</v>
       </c>
       <c r="J9">
-        <v>0.2128715028224661</v>
+        <v>0.51939236825568</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2454932644923247</v>
+        <v>0.6325094201875885</v>
       </c>
       <c r="M9">
-        <v>14.15203809824186</v>
+        <v>44.8461092120512</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07234686842951987</v>
+        <v>0.06302519764696513</v>
       </c>
       <c r="D10">
-        <v>0.05857673014875786</v>
+        <v>0.1129982439783532</v>
       </c>
       <c r="E10">
-        <v>0.1279844345268231</v>
+        <v>0.3228730211723132</v>
       </c>
       <c r="F10">
-        <v>2.17864700564833</v>
+        <v>1.675720585473002</v>
       </c>
       <c r="G10">
-        <v>1.753272970291363</v>
+        <v>2.165210452927823</v>
       </c>
       <c r="H10">
-        <v>1.515961328540385</v>
+        <v>0.9174940866881229</v>
       </c>
       <c r="I10">
-        <v>1.578712216401996</v>
+        <v>1.284461202758962</v>
       </c>
       <c r="J10">
-        <v>0.2291577237777318</v>
+        <v>0.7118078575442439</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2704068706282499</v>
+        <v>0.8359559096947748</v>
       </c>
       <c r="M10">
-        <v>16.49877867328553</v>
+        <v>57.02875018939613</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07284372458653365</v>
+        <v>0.06825907726797453</v>
       </c>
       <c r="D11">
-        <v>0.06072892700733235</v>
+        <v>0.1216058130978155</v>
       </c>
       <c r="E11">
-        <v>0.1322421195955883</v>
+        <v>0.3682419879488705</v>
       </c>
       <c r="F11">
-        <v>2.136031708863143</v>
+        <v>2.105037560967588</v>
       </c>
       <c r="G11">
-        <v>1.725564354588727</v>
+        <v>2.669592472194466</v>
       </c>
       <c r="H11">
-        <v>1.491359126987845</v>
+        <v>1.12440020886973</v>
       </c>
       <c r="I11">
-        <v>1.548386120961503</v>
+        <v>1.609322046443978</v>
       </c>
       <c r="J11">
-        <v>0.2368256709060148</v>
+        <v>0.8328231923550646</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2819321220697759</v>
+        <v>0.9587388019674847</v>
       </c>
       <c r="M11">
-        <v>17.56486815602557</v>
+        <v>63.81931630053163</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07303590622541378</v>
+        <v>0.07054443327485416</v>
       </c>
       <c r="D12">
-        <v>0.06154283960572116</v>
+        <v>0.1249913236787989</v>
       </c>
       <c r="E12">
-        <v>0.1338672847879749</v>
+        <v>0.3885291868308229</v>
       </c>
       <c r="F12">
-        <v>2.120477496070336</v>
+        <v>2.309142164276253</v>
       </c>
       <c r="G12">
-        <v>1.715620281085108</v>
+        <v>2.904962620818623</v>
       </c>
       <c r="H12">
-        <v>1.482368893791858</v>
+        <v>1.222834141818907</v>
       </c>
       <c r="I12">
-        <v>1.537331829904588</v>
+        <v>1.76338689287752</v>
       </c>
       <c r="J12">
-        <v>0.2397685451293796</v>
+        <v>0.8880692743264689</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2863256735764139</v>
+        <v>1.01373519542291</v>
       </c>
       <c r="M12">
-        <v>17.96842597258734</v>
+        <v>66.7368769154188</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0729943365968353</v>
+        <v>0.07003397468063355</v>
       </c>
       <c r="D13">
-        <v>0.06136759662302893</v>
+        <v>0.1242551213657492</v>
       </c>
       <c r="E13">
-        <v>0.1335166945259871</v>
+        <v>0.383973627111132</v>
       </c>
       <c r="F13">
-        <v>2.123801220267538</v>
+        <v>2.262732143856539</v>
       </c>
       <c r="G13">
-        <v>1.717737286192573</v>
+        <v>2.851653822252729</v>
       </c>
       <c r="H13">
-        <v>1.484290495781948</v>
+        <v>1.200451188975393</v>
       </c>
       <c r="I13">
-        <v>1.539693306093604</v>
+        <v>1.728373192669153</v>
       </c>
       <c r="J13">
-        <v>0.2391329699149196</v>
+        <v>0.8756062179130879</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2853781189011784</v>
+        <v>1.00138112672272</v>
       </c>
       <c r="M13">
-        <v>17.88151807147693</v>
+        <v>66.08790921454863</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07285945447843289</v>
+        <v>0.06843942157828309</v>
       </c>
       <c r="D14">
-        <v>0.06079590958786696</v>
+        <v>0.1218813201019344</v>
       </c>
       <c r="E14">
-        <v>0.1323755615801119</v>
+        <v>0.3698326653545081</v>
       </c>
       <c r="F14">
-        <v>2.134740288399939</v>
+        <v>2.120794343179966</v>
       </c>
       <c r="G14">
-        <v>1.724735172434862</v>
+        <v>2.687851511866597</v>
       </c>
       <c r="H14">
-        <v>1.490612922920661</v>
+        <v>1.131998730445417</v>
       </c>
       <c r="I14">
-        <v>1.547468011954457</v>
+        <v>1.621223396529373</v>
       </c>
       <c r="J14">
-        <v>0.2370669861826542</v>
+        <v>0.8371307811984678</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.282292987686219</v>
+        <v>0.963049058930693</v>
       </c>
       <c r="M14">
-        <v>17.59807167350306</v>
+        <v>64.05066106892599</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07277736142671642</v>
+        <v>0.06750991120996019</v>
       </c>
       <c r="D15">
-        <v>0.06044559492200108</v>
+        <v>0.1204461278684619</v>
       </c>
       <c r="E15">
-        <v>0.1316782783753396</v>
+        <v>0.3616533171293668</v>
       </c>
       <c r="F15">
-        <v>2.141517138168126</v>
+        <v>2.040243354228025</v>
       </c>
       <c r="G15">
-        <v>1.729093450061441</v>
+        <v>2.594341179358253</v>
       </c>
       <c r="H15">
-        <v>1.494528249288976</v>
+        <v>1.093155813681051</v>
       </c>
       <c r="I15">
-        <v>1.552286478785248</v>
+        <v>1.560367563160199</v>
       </c>
       <c r="J15">
-        <v>0.2358066737126023</v>
+        <v>0.8150258537402664</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2804071061682691</v>
+        <v>0.9408891084228657</v>
       </c>
       <c r="M15">
-        <v>17.42443534760258</v>
+        <v>62.85631961315482</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07231496041089258</v>
+        <v>0.06271390179708902</v>
       </c>
       <c r="D16">
-        <v>0.05843592735433845</v>
+        <v>0.1124495619671393</v>
       </c>
       <c r="E16">
-        <v>0.1277079546624265</v>
+        <v>0.3202240516584851</v>
       </c>
       <c r="F16">
-        <v>2.181512914638731</v>
+        <v>1.651969796310297</v>
       </c>
       <c r="G16">
-        <v>1.75515977484531</v>
+        <v>2.136853274401886</v>
       </c>
       <c r="H16">
-        <v>1.517614422170169</v>
+        <v>0.9060599252329951</v>
       </c>
       <c r="I16">
-        <v>1.580753665904169</v>
+        <v>1.266450295864729</v>
       </c>
       <c r="J16">
-        <v>0.228661982772195</v>
+        <v>0.7048575846236531</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2696576636900545</v>
+        <v>0.828796869504103</v>
       </c>
       <c r="M16">
-        <v>16.42908312237648</v>
+        <v>56.62045565915281</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07203844369740864</v>
+        <v>0.06010978713899107</v>
       </c>
       <c r="D17">
-        <v>0.05720112545439804</v>
+        <v>0.1077015321776003</v>
       </c>
       <c r="E17">
-        <v>0.1252946053391426</v>
+        <v>0.2982856912157104</v>
       </c>
       <c r="F17">
-        <v>2.207073783517359</v>
+        <v>1.461592660768162</v>
       </c>
       <c r="G17">
-        <v>1.772112355230007</v>
+        <v>1.907359278941385</v>
       </c>
       <c r="H17">
-        <v>1.532351005974164</v>
+        <v>0.8144933379770976</v>
       </c>
       <c r="I17">
-        <v>1.598971851958659</v>
+        <v>1.121894097175819</v>
       </c>
       <c r="J17">
-        <v>0.2243466695177432</v>
+        <v>0.6478191332543588</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2631134809532369</v>
+        <v>0.7695531675905585</v>
       </c>
       <c r="M17">
-        <v>15.81813657404467</v>
+        <v>53.18676057384448</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07188201780876113</v>
+        <v>0.05870045513031386</v>
       </c>
       <c r="D18">
-        <v>0.05649018423622465</v>
+        <v>0.1050154526160583</v>
       </c>
       <c r="E18">
-        <v>0.1239145343017043</v>
+        <v>0.2865781215004972</v>
       </c>
       <c r="F18">
-        <v>2.222148120223466</v>
+        <v>1.36492022542113</v>
       </c>
       <c r="G18">
-        <v>1.782211910612489</v>
+        <v>1.789096696832928</v>
       </c>
       <c r="H18">
-        <v>1.541036000098003</v>
+        <v>0.7680737229733268</v>
       </c>
       <c r="I18">
-        <v>1.609724602997957</v>
+        <v>1.048341566871002</v>
       </c>
       <c r="J18">
-        <v>0.2218888972886646</v>
+        <v>0.6177747907713069</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2593674030674578</v>
+        <v>0.7379727053568956</v>
       </c>
       <c r="M18">
-        <v>15.46659530906624</v>
+        <v>51.31527325617935</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07182950375535313</v>
+        <v>0.05823613233958724</v>
       </c>
       <c r="D19">
-        <v>0.05624934844237828</v>
+        <v>0.1041127702774176</v>
       </c>
       <c r="E19">
-        <v>0.1234486276955522</v>
+        <v>0.2827463300673401</v>
       </c>
       <c r="F19">
-        <v>2.227315597845219</v>
+        <v>1.334074385603159</v>
       </c>
       <c r="G19">
-        <v>1.785690939033671</v>
+        <v>1.75107500285398</v>
       </c>
       <c r="H19">
-        <v>1.544012278109307</v>
+        <v>0.7532768664715377</v>
       </c>
       <c r="I19">
-        <v>1.613412087208019</v>
+        <v>1.024848193158896</v>
       </c>
       <c r="J19">
-        <v>0.2210608520898063</v>
+        <v>0.6080032513079203</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2581020840478629</v>
+        <v>0.7276422523383417</v>
       </c>
       <c r="M19">
-        <v>15.34754346754295</v>
+        <v>50.69669599201347</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07206760810292678</v>
+        <v>0.06037723634715775</v>
       </c>
       <c r="D20">
-        <v>0.05733264621844114</v>
+        <v>0.1082020899045233</v>
       </c>
       <c r="E20">
-        <v>0.1255506761624474</v>
+        <v>0.3005205550687933</v>
       </c>
       <c r="F20">
-        <v>2.204314149419872</v>
+        <v>1.480449460013347</v>
       </c>
       <c r="G20">
-        <v>1.770271514438718</v>
+        <v>1.930280473044263</v>
       </c>
       <c r="H20">
-        <v>1.530760605586522</v>
+        <v>0.8235549144595211</v>
       </c>
       <c r="I20">
-        <v>1.597004053006692</v>
+        <v>1.136228590580068</v>
       </c>
       <c r="J20">
-        <v>0.2248035154673858</v>
+        <v>0.6535860949795591</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2638082501319019</v>
+        <v>0.7755844399695349</v>
       </c>
       <c r="M20">
-        <v>15.88318703547725</v>
+        <v>53.54087917909948</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0728989629210588</v>
+        <v>0.06889733123272634</v>
       </c>
       <c r="D21">
-        <v>0.06096385704093166</v>
+        <v>0.1225744538458713</v>
       </c>
       <c r="E21">
-        <v>0.1327103859680534</v>
+        <v>0.3738795024791131</v>
       </c>
       <c r="F21">
-        <v>2.131511282751177</v>
+        <v>2.16107587354297</v>
       </c>
       <c r="G21">
-        <v>1.722664719934897</v>
+        <v>2.734459936183157</v>
       </c>
       <c r="H21">
-        <v>1.488746971514445</v>
+        <v>1.151424632333487</v>
       </c>
       <c r="I21">
-        <v>1.545172655142778</v>
+        <v>1.651642665642143</v>
       </c>
       <c r="J21">
-        <v>0.2376727363076299</v>
+        <v>0.8481084941813322</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2831983600790409</v>
+        <v>0.9740162671206036</v>
       </c>
       <c r="M21">
-        <v>17.68133022210179</v>
+        <v>64.63722556270193</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.073465825409329</v>
+        <v>0.07656522790951925</v>
       </c>
       <c r="D22">
-        <v>0.06333079135985997</v>
+        <v>0.1327945194923785</v>
       </c>
       <c r="E22">
-        <v>0.1374649900453946</v>
+        <v>0.4432401196282711</v>
       </c>
       <c r="F22">
-        <v>2.087336514031662</v>
+        <v>2.888854905309501</v>
       </c>
       <c r="G22">
-        <v>1.694755348761163</v>
+        <v>3.56209402693591</v>
       </c>
       <c r="H22">
-        <v>1.463192380405019</v>
+        <v>1.502325778507725</v>
       </c>
       <c r="I22">
-        <v>1.513806293378245</v>
+        <v>2.199991481154115</v>
       </c>
       <c r="J22">
-        <v>0.2463129114210432</v>
+        <v>1.040150696328155</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2960418748111522</v>
+        <v>1.162273084382562</v>
       </c>
       <c r="M22">
-        <v>18.85569600099393</v>
+        <v>74.26220030628377</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07316111711440954</v>
+        <v>0.07214500142346481</v>
       </c>
       <c r="D23">
-        <v>0.06206808209439885</v>
+        <v>0.1272246033103528</v>
       </c>
       <c r="E23">
-        <v>0.1349202806042271</v>
+        <v>0.4029010337495222</v>
       </c>
       <c r="F23">
-        <v>2.110597335634907</v>
+        <v>2.457597220467761</v>
       </c>
       <c r="G23">
-        <v>1.709353093474334</v>
+        <v>3.074722265812852</v>
       </c>
       <c r="H23">
-        <v>1.476655013519746</v>
+        <v>1.294429516816137</v>
       </c>
       <c r="I23">
-        <v>1.530314274323246</v>
+        <v>1.875322002060827</v>
       </c>
       <c r="J23">
-        <v>0.2416798360813743</v>
+        <v>0.9275978364774602</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2891708508901161</v>
+        <v>1.052725358194465</v>
       </c>
       <c r="M23">
-        <v>18.22896836640194</v>
+        <v>68.76121599655522</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07205441494308218</v>
+        <v>0.06025605691277747</v>
       </c>
       <c r="D24">
-        <v>0.05727318891288746</v>
+        <v>0.1079756547964479</v>
       </c>
       <c r="E24">
-        <v>0.1254348835492962</v>
+        <v>0.2995074347894473</v>
       </c>
       <c r="F24">
-        <v>2.205560600319188</v>
+        <v>1.471885548900275</v>
       </c>
       <c r="G24">
-        <v>1.771102659211181</v>
+        <v>1.919876321007109</v>
       </c>
       <c r="H24">
-        <v>1.531478963455186</v>
+        <v>0.8194392962347194</v>
       </c>
       <c r="I24">
-        <v>1.597892827025241</v>
+        <v>1.129718988703281</v>
       </c>
       <c r="J24">
-        <v>0.2245969034216841</v>
+        <v>0.6509705378155672</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2634940944590625</v>
+        <v>0.7728501996506623</v>
       </c>
       <c r="M24">
-        <v>15.85377866077937</v>
+        <v>53.38047154993535</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07096071567499251</v>
+        <v>0.05101271594676149</v>
       </c>
       <c r="D25">
-        <v>0.05207371149162299</v>
+        <v>0.08895767354925965</v>
       </c>
       <c r="E25">
-        <v>0.1155081718221638</v>
+        <v>0.2247313105380755</v>
       </c>
       <c r="F25">
-        <v>2.322181369969158</v>
+        <v>0.9216125693433241</v>
       </c>
       <c r="G25">
-        <v>1.850993408100777</v>
+        <v>1.223140230490969</v>
       </c>
       <c r="H25">
-        <v>1.598577904156159</v>
+        <v>0.5566361873203221</v>
       </c>
       <c r="I25">
-        <v>1.681230327683508</v>
+        <v>0.7090328568374247</v>
       </c>
       <c r="J25">
-        <v>0.2070917571159185</v>
+        <v>0.4640388293908302</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2364787631903056</v>
+        <v>0.5715925529717509</v>
       </c>
       <c r="M25">
-        <v>13.28615121475838</v>
+        <v>40.94579271809363</v>
       </c>
       <c r="N25">
         <v>0</v>
